--- a/scripts/orientationList.xlsx
+++ b/scripts/orientationList.xlsx
@@ -44,6 +44,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">本科</t>
     </r>
@@ -63,6 +64,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">研究生</t>
     </r>
@@ -163,6 +165,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">栖梧</t>
     </r>
@@ -213,6 +216,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">微雨昕辰
 </t>
@@ -335,6 +339,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">子鹤
 </t>
@@ -404,6 +409,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">快乐崇拜英格兰
 </t>
@@ -438,6 +444,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">卢小娜
 </t>
@@ -491,6 +498,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">春眠不觉晓
 </t>
@@ -550,6 +558,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">朱文二吉子
 </t>
@@ -587,6 +596,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">让让
 </t>
@@ -640,6 +650,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">李元
 </t>
@@ -674,6 +685,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">张鸿
 </t>
@@ -746,6 +758,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">邹柳瑞东
 </t>
@@ -802,6 +815,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">华大遥
 </t>
@@ -839,6 +853,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">笔墨丹青
 </t>
@@ -914,6 +929,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">小样儿
 </t>
@@ -948,6 +964,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">姗姗来迟
 </t>
@@ -1017,6 +1034,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">嘭嘭
 </t>
@@ -1048,6 +1066,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">如鱼饮水
 </t>
@@ -1098,6 +1117,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一只肥虾
 </t>
@@ -1151,6 +1171,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">呵呵</t>
     </r>
@@ -1198,6 +1219,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">酱莫
 </t>
@@ -1261,6 +1283,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">谭明霏（</t>
     </r>
@@ -1280,6 +1303,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）
 </t>
@@ -1317,6 +1341,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">陈康琳</t>
     </r>
@@ -1354,6 +1379,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">今天也很爱学习
 </t>
@@ -1391,6 +1417,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">曦光
 </t>
@@ -1428,6 +1455,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">小寸</t>
     </r>
@@ -1462,6 +1490,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">丁大爷
 </t>
@@ -1512,6 +1541,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">孟几
 </t>
@@ -1623,6 +1653,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">！
 </t>
@@ -1692,6 +1723,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">雪土</t>
     </r>
@@ -1767,6 +1799,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">杨泽炎
 </t>
@@ -1871,6 +1904,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">等我成为大佬后
 </t>
@@ -1918,6 +1952,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">陈思畅</t>
     </r>
@@ -1952,6 +1987,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">佛系游戏少女</t>
     </r>
@@ -2015,6 +2051,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">樱子</t>
     </r>
@@ -2049,6 +2086,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">江涵笑
 </t>
@@ -2109,6 +2147,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">悦竹
 </t>
@@ -2153,6 +2192,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">张凯谛</t>
     </r>
@@ -2187,6 +2227,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">楊帆
 </t>
@@ -2234,6 +2275,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">张凯
 </t>
@@ -2294,6 +2336,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">大不点阿呆
 </t>
@@ -2344,6 +2387,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">弓长俞心井辶
 </t>
@@ -2375,6 +2419,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">却月
 </t>
@@ -2409,6 +2454,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">阿飞
 </t>
@@ -2513,6 +2559,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">无</t>
     </r>
@@ -2595,6 +2642,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">古月氏小可君
 </t>
@@ -2629,6 +2677,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">小尼克劳斯
 </t>
@@ -2698,6 +2747,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">樱花落
 </t>
@@ -2840,6 +2890,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">石上
 </t>
@@ -2963,6 +3014,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">猹叔叔～
 </t>
@@ -2997,6 +3049,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">文化生活
 </t>
@@ -3034,6 +3087,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">宏</t>
     </r>
@@ -3087,6 +3141,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">小墨鱼</t>
     </r>
@@ -3146,6 +3201,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白色的彩虹
 </t>
@@ -3177,6 +3233,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">祝佳
 </t>
@@ -3211,6 +3268,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">郎丽君
 </t>
@@ -3261,6 +3319,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">金 麗玲
 </t>
@@ -3295,6 +3354,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">枫
 </t>
@@ -3412,6 +3472,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">周明荃
 </t>
@@ -3449,6 +3510,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">徐竹宣
 </t>
@@ -3502,6 +3564,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">王邦
 </t>
@@ -3565,6 +3628,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">杨宁
 </t>
@@ -3596,6 +3660,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">嗯
 </t>
@@ -3706,6 +3771,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">清岚
 </t>
@@ -3740,6 +3806,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">红旗北路最靓的仔
 </t>
@@ -3780,6 +3847,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">默默모모
 </t>
@@ -3814,6 +3882,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">悟酸
 </t>
@@ -3873,6 +3942,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">小崔崔
 </t>
@@ -3907,6 +3977,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">佳
 </t>
@@ -3954,6 +4025,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">薛其翱
 </t>
@@ -4046,6 +4118,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">君莫思归
 </t>
@@ -4080,6 +4153,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">莫迪诚
 </t>
@@ -4114,6 +4188,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">乌小云酱～
 </t>
@@ -4164,6 +4239,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">葉沃誠
 </t>
@@ -4249,6 +4325,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">桐帮主 
 </t>
@@ -4283,6 +4360,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">红旗
 </t>
@@ -4336,6 +4414,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">寸心</t>
     </r>
@@ -4415,6 +4494,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">東东东
 </t>
@@ -4446,6 +4526,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">落生
 </t>
@@ -4496,6 +4577,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">扬梅踢踢
 </t>
@@ -4572,6 +4654,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">元气小子 </t>
     </r>
@@ -4603,6 +4686,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">黄</t>
     </r>
@@ -4640,6 +4724,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">佩韦自缓
 </t>
@@ -4690,6 +4775,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">李琪舟
 </t>
@@ -4737,6 +4823,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">叶泳兰
 </t>
@@ -4844,6 +4931,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">朱哲人
 </t>
@@ -4891,6 +4979,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">刘逸南
 </t>
@@ -4960,6 +5049,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">祝睿龙
 </t>
@@ -4991,6 +5081,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">初夏陌
 </t>
@@ -5025,6 +5116,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">工藤翔一
 </t>
@@ -5078,6 +5170,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">   司千垚吗？
 </t>
@@ -5141,6 +5234,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">董小染</t>
     </r>
@@ -5329,6 +5423,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">行吧
 </t>
@@ -5436,6 +5531,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">王禹正
 </t>
@@ -5473,6 +5569,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">大木
 </t>
@@ -5526,6 +5623,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">夏</t>
     </r>
@@ -5545,6 +5643,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">盐
 </t>
@@ -5598,6 +5697,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">西红柿</t>
     </r>
@@ -5632,6 +5732,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">等雨起
 </t>
@@ -5663,6 +5764,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">石头剪刀布蜥蜴斯波克
 </t>
@@ -5723,6 +5825,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">张逸寒
 </t>
@@ -5834,6 +5937,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">皮卡皮卡</t>
     </r>
@@ -5865,6 +5969,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">花凉
 </t>
@@ -5915,6 +6020,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">张研
 </t>
@@ -5946,6 +6052,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">诗意
 </t>
@@ -5990,6 +6097,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">任歌</t>
     </r>
@@ -6040,6 +6148,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">采薇
 </t>
@@ -6087,6 +6196,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">期末君</t>
     </r>
@@ -6121,6 +6231,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">格罗索
 </t>
@@ -6152,6 +6263,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">黄瑨
 </t>
@@ -6224,6 +6336,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">我见青山多肥胖
 </t>
@@ -6268,6 +6381,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">噗哩
 </t>
@@ -6312,6 +6426,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">小可爱
 </t>
@@ -6343,6 +6458,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">饭</t>
     </r>
@@ -6403,6 +6519,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ｙｕａｎ
 </t>
@@ -6437,6 +6554,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白马啸西风
 </t>
@@ -6487,6 +6605,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">汪恩阳
 </t>
@@ -6537,6 +6656,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">乾之三爻
 </t>
@@ -6628,6 +6748,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">黄睿
 </t>
@@ -6709,6 +6830,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">槑头槑脑
 </t>
@@ -6759,6 +6881,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">染惜 </t>
     </r>
@@ -6793,6 +6916,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">破暁
 </t>
@@ -6875,6 +6999,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">王湲鑫
 </t>
@@ -6924,6 +7049,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">季宇琪
 </t>
@@ -6990,6 +7116,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">王浩然
 </t>
@@ -7027,6 +7154,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">采英姿
 </t>
@@ -7071,6 +7199,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">不晚家</t>
     </r>
@@ -7102,6 +7231,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">马勇
 </t>
@@ -7152,6 +7282,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">昳
 </t>
@@ -7215,6 +7346,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">张帆
 </t>
@@ -7306,6 +7438,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">韩
 </t>
@@ -7362,6 +7495,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">王开
 </t>
@@ -7405,6 +7539,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">吴昕阳
 </t>
@@ -7449,6 +7584,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">那样就不好玩了
 </t>
@@ -7480,6 +7616,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">有香气的小仙女</t>
     </r>
@@ -7565,6 +7702,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">孑孓孑孓
 </t>
@@ -7596,6 +7734,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">苏哈威尔
 </t>
@@ -7646,6 +7785,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">芜</t>
     </r>
@@ -7677,6 +7817,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">亦萧然
 </t>
@@ -7708,6 +7849,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">本科／</t>
     </r>
@@ -7727,6 +7869,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">／</t>
     </r>
@@ -7821,6 +7964,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">＋语言学</t>
     </r>
@@ -7904,6 +8048,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">金旭</t>
     </r>
@@ -8043,6 +8188,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -8099,7 +8245,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -8132,6 +8278,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -8140,19 +8290,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8241,14 +8383,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5814814814815"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.937037037037"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.5444444444444"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.0037037037037"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.5925925925926"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0148148148148"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.937037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9740740740741"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2296296296296"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.7407407407407"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.7888888888889"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.4740740740741"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3074074074074"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.2296296296296"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8794,7 +8936,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>136</v>
       </c>
@@ -8817,7 +8959,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>141</v>
       </c>
@@ -8840,7 +8982,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>147</v>
       </c>
@@ -10847,7 +10989,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="116" s="2" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
         <v>602</v>
       </c>
@@ -10870,7 +11012,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="117" s="2" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
         <v>608</v>
       </c>
@@ -10893,7 +11035,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="118" s="2" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
         <v>612</v>
       </c>
@@ -11010,7 +11152,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="123" s="2" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
         <v>637</v>
       </c>
@@ -11033,7 +11175,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="124" s="2" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
         <v>643</v>
       </c>
@@ -11056,7 +11198,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="125" s="2" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
         <v>648</v>
       </c>
@@ -11079,7 +11221,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="126" s="2" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
         <v>653</v>
       </c>
@@ -11099,7 +11241,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="127" s="2" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
         <v>648</v>
       </c>
@@ -11485,7 +11627,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="144" s="2" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
         <v>738</v>
       </c>
@@ -15795,19 +15937,19 @@
   </sheetPr>
   <dimension ref="A1:H370"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A355" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D374" activeCellId="0" sqref="D374"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="10.6814814814815"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.4592592592593"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.0444444444444"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.5814814814815"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.737037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7555555555556"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.1444444444444"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.8296296296296"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.9740740740741"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.1296296296296"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.9740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16029,13 +16171,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="2" customFormat="true" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>1592</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>1593</v>
       </c>
+      <c r="D10" s="8"/>
       <c r="E10" s="2" t="s">
         <v>320</v>
       </c>
@@ -16317,29 +16460,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" s="8" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
+    <row r="22" s="9" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="s">
         <v>1481</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>1482</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="9" t="s">
         <v>1483</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="9" t="s">
         <v>1484</v>
       </c>
-      <c r="H22" s="8" t="n">
+      <c r="H22" s="9" t="n">
         <v>3</v>
       </c>
     </row>
@@ -18068,26 +18211,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" s="8" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="8" t="s">
+    <row r="95" s="9" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="9" t="s">
         <v>1494</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="10" t="s">
         <v>1495</v>
       </c>
-      <c r="D95" s="8" t="s">
+      <c r="D95" s="9" t="s">
         <v>1496</v>
       </c>
-      <c r="E95" s="8" t="s">
+      <c r="E95" s="9" t="s">
         <v>1443</v>
       </c>
-      <c r="F95" s="9" t="s">
+      <c r="F95" s="10" t="s">
         <v>1497</v>
       </c>
-      <c r="G95" s="8" t="s">
+      <c r="G95" s="9" t="s">
         <v>1498</v>
       </c>
-      <c r="H95" s="8" t="n">
+      <c r="H95" s="9" t="n">
         <v>12</v>
       </c>
     </row>
@@ -18655,29 +18798,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" s="8" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="8" t="s">
+    <row r="120" s="9" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="9" t="s">
         <v>1519</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="10" t="s">
         <v>1520</v>
       </c>
-      <c r="C120" s="8" t="s">
+      <c r="C120" s="9" t="s">
         <v>1521</v>
       </c>
-      <c r="D120" s="8" t="s">
+      <c r="D120" s="9" t="s">
         <v>1522</v>
       </c>
-      <c r="E120" s="8" t="s">
+      <c r="E120" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F120" s="8" t="s">
+      <c r="F120" s="9" t="s">
         <v>1523</v>
       </c>
-      <c r="G120" s="8" t="s">
+      <c r="G120" s="9" t="s">
         <v>1524</v>
       </c>
-      <c r="H120" s="8" t="n">
+      <c r="H120" s="9" t="n">
         <v>15</v>
       </c>
     </row>
@@ -19338,29 +19481,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" s="8" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="8" t="s">
+    <row r="148" s="9" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="9" t="s">
         <v>1508</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C148" s="9" t="s">
+      <c r="C148" s="10" t="s">
         <v>1509</v>
       </c>
-      <c r="D148" s="8" t="s">
+      <c r="D148" s="9" t="s">
         <v>1510</v>
       </c>
-      <c r="E148" s="8" t="s">
+      <c r="E148" s="9" t="s">
         <v>1511</v>
       </c>
-      <c r="F148" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" s="8" t="s">
+      <c r="F148" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G148" s="9" t="s">
         <v>1512</v>
       </c>
-      <c r="H148" s="8" t="n">
+      <c r="H148" s="9" t="n">
         <v>18</v>
       </c>
     </row>
@@ -19923,29 +20066,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="172" s="8" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="8" t="s">
+    <row r="172" s="9" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B172" s="9" t="s">
+      <c r="B172" s="10" t="s">
         <v>1576</v>
       </c>
-      <c r="C172" s="9" t="s">
+      <c r="C172" s="10" t="s">
         <v>1577</v>
       </c>
-      <c r="D172" s="8" t="s">
+      <c r="D172" s="9" t="s">
         <v>1578</v>
       </c>
-      <c r="E172" s="8" t="s">
+      <c r="E172" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="F172" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G172" s="8" t="s">
+      <c r="F172" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G172" s="9" t="s">
         <v>1579</v>
       </c>
-      <c r="H172" s="8" t="n">
+      <c r="H172" s="9" t="n">
         <v>21</v>
       </c>
     </row>
@@ -20491,14 +20634,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="195" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="10" t="s">
+    <row r="195" s="7" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="7" t="s">
         <v>1155</v>
       </c>
-      <c r="B195" s="10" t="s">
+      <c r="B195" s="7" t="s">
         <v>1019</v>
       </c>
-      <c r="C195" s="10" t="s">
+      <c r="C195" s="7" t="s">
         <v>1156</v>
       </c>
       <c r="D195" s="11" t="s">
@@ -20507,13 +20650,13 @@
       <c r="E195" s="11" t="s">
         <v>1415</v>
       </c>
-      <c r="F195" s="10" t="s">
+      <c r="F195" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G195" s="11" t="s">
         <v>1416</v>
       </c>
-      <c r="H195" s="10" t="n">
+      <c r="H195" s="7" t="n">
         <v>24</v>
       </c>
     </row>
@@ -20845,29 +20988,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="210" s="8" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" s="9" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="12" t="s">
         <v>1545</v>
       </c>
-      <c r="B210" s="9" t="s">
+      <c r="B210" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="C210" s="9" t="s">
+      <c r="C210" s="10" t="s">
         <v>1546</v>
       </c>
-      <c r="D210" s="8" t="s">
+      <c r="D210" s="9" t="s">
         <v>1547</v>
       </c>
-      <c r="E210" s="8" t="s">
+      <c r="E210" s="9" t="s">
         <v>1548</v>
       </c>
-      <c r="F210" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G210" s="8" t="s">
+      <c r="F210" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G210" s="9" t="s">
         <v>1549</v>
       </c>
-      <c r="H210" s="8" t="n">
+      <c r="H210" s="9" t="n">
         <v>26</v>
       </c>
     </row>
@@ -21061,26 +21204,26 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" s="8" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="8" t="s">
+    <row r="219" s="9" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="9" t="s">
         <v>1462</v>
       </c>
-      <c r="C219" s="9" t="s">
+      <c r="C219" s="10" t="s">
         <v>1463</v>
       </c>
-      <c r="D219" s="8" t="s">
+      <c r="D219" s="9" t="s">
         <v>1464</v>
       </c>
-      <c r="E219" s="8" t="s">
+      <c r="E219" s="9" t="s">
         <v>1362</v>
       </c>
-      <c r="F219" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G219" s="8" t="s">
+      <c r="F219" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G219" s="9" t="s">
         <v>1465</v>
       </c>
-      <c r="H219" s="8" t="n">
+      <c r="H219" s="9" t="n">
         <v>27</v>
       </c>
     </row>
@@ -21277,29 +21420,29 @@
         <v>28</v>
       </c>
     </row>
-    <row r="228" s="8" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" s="9" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="12" t="s">
         <v>1391</v>
       </c>
-      <c r="B228" s="9" t="s">
+      <c r="B228" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C228" s="9" t="s">
+      <c r="C228" s="10" t="s">
         <v>1499</v>
       </c>
-      <c r="D228" s="8" t="s">
+      <c r="D228" s="9" t="s">
         <v>1500</v>
       </c>
-      <c r="E228" s="8" t="s">
+      <c r="E228" s="9" t="s">
         <v>1394</v>
       </c>
-      <c r="F228" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G228" s="8" t="s">
+      <c r="F228" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G228" s="9" t="s">
         <v>1501</v>
       </c>
-      <c r="H228" s="8" t="n">
+      <c r="H228" s="9" t="n">
         <v>28</v>
       </c>
     </row>
@@ -21689,29 +21832,29 @@
         <v>30</v>
       </c>
     </row>
-    <row r="245" s="8" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="8" t="s">
+    <row r="245" s="9" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="9" t="s">
         <v>1371</v>
       </c>
-      <c r="B245" s="8" t="s">
+      <c r="B245" s="9" t="s">
         <v>1372</v>
       </c>
-      <c r="C245" s="9" t="s">
+      <c r="C245" s="10" t="s">
         <v>1373</v>
       </c>
-      <c r="D245" s="8" t="s">
+      <c r="D245" s="9" t="s">
         <v>1374</v>
       </c>
-      <c r="E245" s="8" t="s">
+      <c r="E245" s="9" t="s">
         <v>1375</v>
       </c>
-      <c r="F245" s="8" t="s">
+      <c r="F245" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="G245" s="8" t="s">
+      <c r="G245" s="9" t="s">
         <v>1376</v>
       </c>
-      <c r="H245" s="8" t="n">
+      <c r="H245" s="9" t="n">
         <v>30</v>
       </c>
     </row>
@@ -22193,14 +22336,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="266" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="10" t="s">
+    <row r="266" s="7" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="7" t="s">
         <v>1199</v>
       </c>
-      <c r="B266" s="10" t="s">
+      <c r="B266" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C266" s="10" t="s">
+      <c r="C266" s="7" t="s">
         <v>1200</v>
       </c>
       <c r="D266" s="11" t="s">
@@ -22209,13 +22352,13 @@
       <c r="E266" s="11" t="s">
         <v>1202</v>
       </c>
-      <c r="F266" s="10" t="s">
+      <c r="F266" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G266" s="11" t="s">
         <v>1203</v>
       </c>
-      <c r="H266" s="10" t="n">
+      <c r="H266" s="7" t="n">
         <v>32</v>
       </c>
     </row>
@@ -22258,7 +22401,7 @@
       <c r="G268" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="H268" s="10" t="n">
+      <c r="H268" s="7" t="n">
         <v>33</v>
       </c>
     </row>
@@ -22281,33 +22424,33 @@
       <c r="G269" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="H269" s="10" t="n">
+      <c r="H269" s="7" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="270" s="8" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="8" t="s">
+    <row r="270" s="9" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="9" t="s">
         <v>1440</v>
       </c>
-      <c r="B270" s="9" t="s">
+      <c r="B270" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C270" s="9" t="s">
+      <c r="C270" s="10" t="s">
         <v>1441</v>
       </c>
-      <c r="D270" s="8" t="s">
+      <c r="D270" s="9" t="s">
         <v>1442</v>
       </c>
-      <c r="E270" s="8" t="s">
+      <c r="E270" s="9" t="s">
         <v>1443</v>
       </c>
-      <c r="F270" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G270" s="8" t="s">
+      <c r="F270" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G270" s="9" t="s">
         <v>1444</v>
       </c>
-      <c r="H270" s="8" t="n">
+      <c r="H270" s="9" t="n">
         <v>33</v>
       </c>
     </row>
@@ -22333,7 +22476,7 @@
       <c r="G271" s="0" t="s">
         <v>743</v>
       </c>
-      <c r="H271" s="10" t="n">
+      <c r="H271" s="7" t="n">
         <v>33</v>
       </c>
     </row>
@@ -22359,7 +22502,7 @@
       <c r="G272" s="0" t="s">
         <v>553</v>
       </c>
-      <c r="H272" s="10" t="n">
+      <c r="H272" s="7" t="n">
         <v>33</v>
       </c>
     </row>
@@ -22382,7 +22525,7 @@
       <c r="G273" s="0" t="s">
         <v>656</v>
       </c>
-      <c r="H273" s="10" t="n">
+      <c r="H273" s="7" t="n">
         <v>33</v>
       </c>
     </row>
@@ -22405,7 +22548,7 @@
       <c r="G274" s="0" t="s">
         <v>689</v>
       </c>
-      <c r="H274" s="10" t="n">
+      <c r="H274" s="7" t="n">
         <v>33</v>
       </c>
     </row>
@@ -22428,7 +22571,7 @@
       <c r="G275" s="0" t="s">
         <v>708</v>
       </c>
-      <c r="H275" s="10" t="n">
+      <c r="H275" s="7" t="n">
         <v>33</v>
       </c>
     </row>
@@ -22471,7 +22614,7 @@
       <c r="G277" s="0" t="s">
         <v>453</v>
       </c>
-      <c r="H277" s="10" t="n">
+      <c r="H277" s="7" t="n">
         <v>34</v>
       </c>
     </row>
@@ -22497,7 +22640,7 @@
       <c r="G278" s="0" t="s">
         <v>757</v>
       </c>
-      <c r="H278" s="10" t="n">
+      <c r="H278" s="7" t="n">
         <v>34</v>
       </c>
     </row>
@@ -22523,7 +22666,7 @@
       <c r="G279" s="0" t="s">
         <v>869</v>
       </c>
-      <c r="H279" s="10" t="n">
+      <c r="H279" s="7" t="n">
         <v>34</v>
       </c>
     </row>
@@ -22549,7 +22692,7 @@
       <c r="G280" s="0" t="s">
         <v>874</v>
       </c>
-      <c r="H280" s="10" t="n">
+      <c r="H280" s="7" t="n">
         <v>34</v>
       </c>
     </row>
@@ -22575,7 +22718,7 @@
       <c r="G281" s="0" t="s">
         <v>884</v>
       </c>
-      <c r="H281" s="10" t="n">
+      <c r="H281" s="7" t="n">
         <v>34</v>
       </c>
     </row>
@@ -22601,15 +22744,15 @@
       <c r="G282" s="0" t="s">
         <v>797</v>
       </c>
-      <c r="H282" s="10" t="n">
+      <c r="H282" s="7" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="283" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="13" t="s">
+    <row r="283" s="7" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="C283" s="10" t="s">
+      <c r="C283" s="7" t="s">
         <v>705</v>
       </c>
       <c r="D283" s="11" t="s">
@@ -22618,7 +22761,7 @@
       <c r="E283" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="F283" s="10" t="s">
+      <c r="F283" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G283" s="11" t="s">
@@ -22664,7 +22807,7 @@
       <c r="G285" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="H285" s="10" t="n">
+      <c r="H285" s="7" t="n">
         <v>35</v>
       </c>
     </row>
@@ -22690,7 +22833,7 @@
       <c r="G286" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="H286" s="10" t="n">
+      <c r="H286" s="7" t="n">
         <v>35</v>
       </c>
     </row>
@@ -22716,33 +22859,33 @@
       <c r="G287" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="H287" s="10" t="n">
+      <c r="H287" s="7" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="288" s="8" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="8" t="s">
+    <row r="288" s="9" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="9" t="s">
         <v>1359</v>
       </c>
-      <c r="B288" s="8" t="s">
+      <c r="B288" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="C288" s="9" t="s">
+      <c r="C288" s="10" t="s">
         <v>1360</v>
       </c>
-      <c r="D288" s="8" t="s">
+      <c r="D288" s="9" t="s">
         <v>1361</v>
       </c>
-      <c r="E288" s="8" t="s">
+      <c r="E288" s="9" t="s">
         <v>1362</v>
       </c>
-      <c r="F288" s="8" t="s">
+      <c r="F288" s="9" t="s">
         <v>787</v>
       </c>
-      <c r="G288" s="8" t="s">
+      <c r="G288" s="9" t="s">
         <v>1363</v>
       </c>
-      <c r="H288" s="8" t="n">
+      <c r="H288" s="9" t="n">
         <v>48</v>
       </c>
     </row>
@@ -22768,7 +22911,7 @@
       <c r="G289" s="0" t="s">
         <v>900</v>
       </c>
-      <c r="H289" s="10" t="n">
+      <c r="H289" s="7" t="n">
         <v>35</v>
       </c>
     </row>
@@ -22794,7 +22937,7 @@
       <c r="G290" s="0" t="s">
         <v>967</v>
       </c>
-      <c r="H290" s="10" t="n">
+      <c r="H290" s="7" t="n">
         <v>35</v>
       </c>
     </row>
@@ -22817,7 +22960,7 @@
       <c r="G291" s="0" t="s">
         <v>1028</v>
       </c>
-      <c r="H291" s="10" t="n">
+      <c r="H291" s="7" t="n">
         <v>35</v>
       </c>
     </row>
@@ -22843,7 +22986,7 @@
       <c r="G292" s="0" t="s">
         <v>1104</v>
       </c>
-      <c r="H292" s="10" t="n">
+      <c r="H292" s="7" t="n">
         <v>35</v>
       </c>
     </row>
@@ -22886,7 +23029,7 @@
       <c r="G294" s="0" t="s">
         <v>1047</v>
       </c>
-      <c r="H294" s="10" t="n">
+      <c r="H294" s="7" t="n">
         <v>36</v>
       </c>
     </row>
@@ -22912,7 +23055,7 @@
       <c r="G295" s="0" t="s">
         <v>1072</v>
       </c>
-      <c r="H295" s="10" t="n">
+      <c r="H295" s="7" t="n">
         <v>36</v>
       </c>
     </row>
@@ -22938,7 +23081,7 @@
       <c r="G296" s="0" t="s">
         <v>1076</v>
       </c>
-      <c r="H296" s="10" t="n">
+      <c r="H296" s="7" t="n">
         <v>36</v>
       </c>
     </row>
@@ -22964,7 +23107,7 @@
       <c r="G297" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="H297" s="10" t="n">
+      <c r="H297" s="7" t="n">
         <v>36</v>
       </c>
     </row>
@@ -22990,7 +23133,7 @@
       <c r="G298" s="0" t="s">
         <v>737</v>
       </c>
-      <c r="H298" s="10" t="n">
+      <c r="H298" s="7" t="n">
         <v>36</v>
       </c>
     </row>
@@ -23016,7 +23159,7 @@
       <c r="G299" s="0" t="s">
         <v>763</v>
       </c>
-      <c r="H299" s="10" t="n">
+      <c r="H299" s="7" t="n">
         <v>36</v>
       </c>
     </row>
@@ -23042,7 +23185,7 @@
       <c r="G300" s="0" t="s">
         <v>839</v>
       </c>
-      <c r="H300" s="10" t="n">
+      <c r="H300" s="7" t="n">
         <v>36</v>
       </c>
     </row>
@@ -23082,7 +23225,7 @@
       <c r="G302" s="0" t="s">
         <v>1303</v>
       </c>
-      <c r="H302" s="10" t="n">
+      <c r="H302" s="7" t="n">
         <v>37</v>
       </c>
     </row>
@@ -23108,7 +23251,7 @@
       <c r="G303" s="0" t="s">
         <v>1316</v>
       </c>
-      <c r="H303" s="10" t="n">
+      <c r="H303" s="7" t="n">
         <v>37</v>
       </c>
     </row>
@@ -23134,33 +23277,33 @@
       <c r="G304" s="0" t="s">
         <v>1134</v>
       </c>
-      <c r="H304" s="10" t="n">
+      <c r="H304" s="7" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="305" s="8" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="8" t="s">
+    <row r="305" s="9" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="9" t="s">
         <v>1335</v>
       </c>
-      <c r="B305" s="9" t="s">
+      <c r="B305" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C305" s="9" t="s">
+      <c r="C305" s="10" t="s">
         <v>1336</v>
       </c>
-      <c r="D305" s="8" t="s">
+      <c r="D305" s="9" t="s">
         <v>1337</v>
       </c>
-      <c r="E305" s="8" t="s">
+      <c r="E305" s="9" t="s">
         <v>899</v>
       </c>
-      <c r="F305" s="8" t="s">
+      <c r="F305" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="G305" s="8" t="s">
+      <c r="G305" s="9" t="s">
         <v>1338</v>
       </c>
-      <c r="H305" s="8" t="n">
+      <c r="H305" s="9" t="n">
         <v>48</v>
       </c>
     </row>
@@ -23186,7 +23329,7 @@
       <c r="G306" s="0" t="s">
         <v>625</v>
       </c>
-      <c r="H306" s="10" t="n">
+      <c r="H306" s="7" t="n">
         <v>37</v>
       </c>
     </row>
@@ -23209,7 +23352,7 @@
       <c r="G307" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="H307" s="10" t="n">
+      <c r="H307" s="7" t="n">
         <v>37</v>
       </c>
     </row>
@@ -23232,7 +23375,7 @@
       <c r="G308" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="H308" s="10" t="n">
+      <c r="H308" s="7" t="n">
         <v>37</v>
       </c>
     </row>
@@ -23255,7 +23398,7 @@
       <c r="G309" s="0" t="s">
         <v>1062</v>
       </c>
-      <c r="H309" s="10" t="n">
+      <c r="H309" s="7" t="n">
         <v>37</v>
       </c>
     </row>
@@ -23295,7 +23438,7 @@
       <c r="G311" s="0" t="s">
         <v>1110</v>
       </c>
-      <c r="H311" s="10" t="n">
+      <c r="H311" s="7" t="n">
         <v>38</v>
       </c>
     </row>
@@ -23321,15 +23464,15 @@
       <c r="G312" s="0" t="s">
         <v>895</v>
       </c>
-      <c r="H312" s="10" t="n">
+      <c r="H312" s="7" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="313" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="10" t="s">
+    <row r="313" s="7" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="7" t="s">
         <v>1541</v>
       </c>
-      <c r="C313" s="10" t="s">
+      <c r="C313" s="7" t="s">
         <v>1542</v>
       </c>
       <c r="D313" s="11" t="s">
@@ -23338,13 +23481,13 @@
       <c r="E313" s="11" t="s">
         <v>615</v>
       </c>
-      <c r="F313" s="10" t="s">
+      <c r="F313" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G313" s="11" t="s">
         <v>1544</v>
       </c>
-      <c r="H313" s="10" t="n">
+      <c r="H313" s="7" t="n">
         <v>38</v>
       </c>
     </row>
@@ -23370,18 +23513,18 @@
       <c r="G314" s="0" t="s">
         <v>616</v>
       </c>
-      <c r="H314" s="10" t="n">
+      <c r="H314" s="7" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="315" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="13" t="s">
+    <row r="315" s="7" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="B315" s="10" t="s">
+      <c r="B315" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C315" s="10" t="s">
+      <c r="C315" s="7" t="s">
         <v>560</v>
       </c>
       <c r="D315" s="11" t="s">
@@ -23390,24 +23533,24 @@
       <c r="E315" s="11" t="s">
         <v>1434</v>
       </c>
-      <c r="F315" s="10" t="s">
+      <c r="F315" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G315" s="11" t="s">
         <v>1435</v>
       </c>
-      <c r="H315" s="10" t="n">
+      <c r="H315" s="7" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="316" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="13" t="s">
+    <row r="316" s="7" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="6" t="s">
         <v>1417</v>
       </c>
       <c r="B316" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="C316" s="10" t="s">
+      <c r="C316" s="7" t="s">
         <v>1418</v>
       </c>
       <c r="D316" s="11" t="s">
@@ -23416,21 +23559,22 @@
       <c r="E316" s="11" t="s">
         <v>1420</v>
       </c>
-      <c r="F316" s="10" t="s">
+      <c r="F316" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G316" s="11" t="s">
         <v>1421</v>
       </c>
-      <c r="H316" s="10" t="n">
+      <c r="H316" s="7" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="317" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="13" t="s">
+    <row r="317" s="7" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="6" t="s">
         <v>1411</v>
       </c>
-      <c r="C317" s="10" t="s">
+      <c r="B317" s="0"/>
+      <c r="C317" s="7" t="s">
         <v>1412</v>
       </c>
       <c r="D317" s="11" t="s">
@@ -23439,21 +23583,21 @@
       <c r="E317" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="F317" s="10" t="s">
+      <c r="F317" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G317" s="11" t="s">
         <v>1414</v>
       </c>
-      <c r="H317" s="10" t="n">
+      <c r="H317" s="7" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="318" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="10" t="s">
+    <row r="318" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="7" t="s">
         <v>1466</v>
       </c>
-      <c r="C318" s="10" t="s">
+      <c r="C318" s="7" t="s">
         <v>1467</v>
       </c>
       <c r="D318" s="11" t="s">
@@ -23462,24 +23606,24 @@
       <c r="E318" s="11" t="s">
         <v>1469</v>
       </c>
-      <c r="F318" s="10" t="s">
+      <c r="F318" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G318" s="11" t="s">
         <v>1470</v>
       </c>
-      <c r="H318" s="10" t="n">
+      <c r="H318" s="7" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="319" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="13" t="s">
+    <row r="319" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="6" t="s">
         <v>1321</v>
       </c>
-      <c r="B319" s="10" t="s">
+      <c r="B319" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="C319" s="10" t="s">
+      <c r="C319" s="7" t="s">
         <v>1322</v>
       </c>
       <c r="D319" s="11" t="s">
@@ -23488,21 +23632,21 @@
       <c r="E319" s="11" t="s">
         <v>1324</v>
       </c>
-      <c r="F319" s="10" t="s">
+      <c r="F319" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G319" s="11" t="s">
         <v>1325</v>
       </c>
-      <c r="H319" s="10" t="n">
+      <c r="H319" s="7" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="320" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="10" t="s">
+    <row r="320" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="7" t="s">
         <v>1326</v>
       </c>
-      <c r="C320" s="10" t="s">
+      <c r="C320" s="7" t="s">
         <v>1327</v>
       </c>
       <c r="D320" s="11" t="s">
@@ -23511,21 +23655,21 @@
       <c r="E320" s="11" t="s">
         <v>1329</v>
       </c>
-      <c r="F320" s="10" t="s">
+      <c r="F320" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G320" s="11" t="s">
         <v>1330</v>
       </c>
-      <c r="H320" s="10" t="n">
+      <c r="H320" s="7" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="321" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="13" t="s">
+    <row r="321" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="6" t="s">
         <v>1111</v>
       </c>
-      <c r="C321" s="10" t="s">
+      <c r="C321" s="7" t="s">
         <v>1112</v>
       </c>
       <c r="D321" s="11" t="s">
@@ -23534,24 +23678,24 @@
       <c r="E321" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F321" s="10" t="s">
+      <c r="F321" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G321" s="11" t="s">
         <v>1340</v>
       </c>
-      <c r="H321" s="10" t="n">
+      <c r="H321" s="7" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="322" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="10" t="s">
+    <row r="322" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="B322" s="10" t="s">
+      <c r="B322" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C322" s="10" t="s">
+      <c r="C322" s="7" t="s">
         <v>795</v>
       </c>
       <c r="D322" s="11" t="s">
@@ -23560,24 +23704,24 @@
       <c r="E322" s="11" t="s">
         <v>1329</v>
       </c>
-      <c r="F322" s="10" t="s">
+      <c r="F322" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G322" s="11" t="s">
         <v>1350</v>
       </c>
-      <c r="H322" s="10" t="n">
+      <c r="H322" s="7" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="323" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="13" t="s">
+    <row r="323" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="B323" s="10" t="s">
+      <c r="B323" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C323" s="10" t="s">
+      <c r="C323" s="7" t="s">
         <v>1356</v>
       </c>
       <c r="D323" s="11" t="s">
@@ -23586,24 +23730,24 @@
       <c r="E323" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="F323" s="10" t="s">
+      <c r="F323" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G323" s="11" t="s">
         <v>1358</v>
       </c>
-      <c r="H323" s="10" t="n">
+      <c r="H323" s="7" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="324" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="10" t="s">
+    <row r="324" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="7" t="s">
         <v>1177</v>
       </c>
-      <c r="B324" s="10" t="s">
+      <c r="B324" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="C324" s="10" t="s">
+      <c r="C324" s="7" t="s">
         <v>1178</v>
       </c>
       <c r="D324" s="11" t="s">
@@ -23612,24 +23756,24 @@
       <c r="E324" s="11" t="s">
         <v>1364</v>
       </c>
-      <c r="F324" s="10" t="s">
+      <c r="F324" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G324" s="11" t="s">
         <v>1365</v>
       </c>
-      <c r="H324" s="10" t="n">
+      <c r="H324" s="7" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="325" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="13" t="s">
+    <row r="325" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B325" s="10" t="s">
+      <c r="B325" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="C325" s="10" t="s">
+      <c r="C325" s="7" t="s">
         <v>380</v>
       </c>
       <c r="D325" s="11" t="s">
@@ -23638,24 +23782,24 @@
       <c r="E325" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="F325" s="10" t="s">
+      <c r="F325" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G325" s="11" t="s">
         <v>1379</v>
       </c>
-      <c r="H325" s="10" t="n">
+      <c r="H325" s="7" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="326" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="10" t="s">
+    <row r="326" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="7" t="s">
         <v>1331</v>
       </c>
-      <c r="B326" s="10" t="s">
+      <c r="B326" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C326" s="10" t="s">
+      <c r="C326" s="7" t="s">
         <v>1332</v>
       </c>
       <c r="D326" s="11" t="s">
@@ -23664,24 +23808,24 @@
       <c r="E326" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F326" s="10" t="s">
+      <c r="F326" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G326" s="11" t="s">
         <v>1334</v>
       </c>
-      <c r="H326" s="10" t="n">
+      <c r="H326" s="7" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="327" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="10" t="s">
+    <row r="327" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="7" t="s">
         <v>1525</v>
       </c>
-      <c r="B327" s="10" t="s">
+      <c r="B327" s="7" t="s">
         <v>822</v>
       </c>
-      <c r="C327" s="10" t="s">
+      <c r="C327" s="7" t="s">
         <v>1526</v>
       </c>
       <c r="D327" s="11" t="s">
@@ -23690,24 +23834,24 @@
       <c r="E327" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="F327" s="10" t="s">
+      <c r="F327" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G327" s="11" t="s">
         <v>1528</v>
       </c>
-      <c r="H327" s="10" t="n">
+      <c r="H327" s="7" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="328" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="13" t="s">
+    <row r="328" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="6" t="s">
         <v>1560</v>
       </c>
-      <c r="B328" s="10" t="s">
+      <c r="B328" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C328" s="10" t="s">
+      <c r="C328" s="7" t="s">
         <v>1561</v>
       </c>
       <c r="D328" s="11" t="s">
@@ -23716,21 +23860,21 @@
       <c r="E328" s="11" t="s">
         <v>1563</v>
       </c>
-      <c r="F328" s="10" t="s">
+      <c r="F328" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G328" s="11" t="s">
         <v>1564</v>
       </c>
-      <c r="H328" s="10" t="n">
+      <c r="H328" s="7" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="329" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="13" t="s">
+    <row r="329" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="C329" s="10" t="s">
+      <c r="C329" s="7" t="s">
         <v>1366</v>
       </c>
       <c r="D329" s="11" t="s">
@@ -23739,21 +23883,21 @@
       <c r="E329" s="11" t="s">
         <v>651</v>
       </c>
-      <c r="F329" s="10" t="s">
+      <c r="F329" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G329" s="11" t="s">
         <v>1368</v>
       </c>
-      <c r="H329" s="10" t="n">
+      <c r="H329" s="7" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="330" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="10" t="s">
+    <row r="330" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="C330" s="10" t="s">
+      <c r="C330" s="7" t="s">
         <v>686</v>
       </c>
       <c r="D330" s="11" t="s">
@@ -23762,21 +23906,21 @@
       <c r="E330" s="11" t="s">
         <v>688</v>
       </c>
-      <c r="F330" s="10" t="s">
+      <c r="F330" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G330" s="11" t="s">
         <v>1370</v>
       </c>
-      <c r="H330" s="10" t="n">
+      <c r="H330" s="7" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="331" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="13" t="s">
+    <row r="331" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="6" t="s">
         <v>1550</v>
       </c>
-      <c r="C331" s="10" t="s">
+      <c r="C331" s="7" t="s">
         <v>1551</v>
       </c>
       <c r="D331" s="11" t="s">
@@ -23785,24 +23929,24 @@
       <c r="E331" s="11" t="s">
         <v>1553</v>
       </c>
-      <c r="F331" s="10" t="s">
+      <c r="F331" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G331" s="11" t="s">
         <v>1554</v>
       </c>
-      <c r="H331" s="10" t="n">
+      <c r="H331" s="7" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="332" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="13" t="s">
+    <row r="332" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="6" t="s">
         <v>1555</v>
       </c>
-      <c r="B332" s="10" t="s">
+      <c r="B332" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="C332" s="10" t="s">
+      <c r="C332" s="7" t="s">
         <v>1556</v>
       </c>
       <c r="D332" s="11" t="s">
@@ -23811,24 +23955,24 @@
       <c r="E332" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F332" s="10" t="s">
+      <c r="F332" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G332" s="11" t="s">
         <v>1558</v>
       </c>
-      <c r="H332" s="10" t="n">
+      <c r="H332" s="7" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="333" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="10" t="s">
+    <row r="333" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="7" t="s">
         <v>1341</v>
       </c>
-      <c r="B333" s="10" t="s">
+      <c r="B333" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="C333" s="10" t="s">
+      <c r="C333" s="7" t="s">
         <v>1342</v>
       </c>
       <c r="D333" s="11" t="s">
@@ -23837,24 +23981,24 @@
       <c r="E333" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F333" s="10" t="s">
+      <c r="F333" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G333" s="11" t="s">
         <v>1344</v>
       </c>
-      <c r="H333" s="10" t="n">
+      <c r="H333" s="7" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="334" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="13" t="s">
+    <row r="334" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="6" t="s">
         <v>1345</v>
       </c>
-      <c r="B334" s="10" t="s">
+      <c r="B334" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C334" s="10" t="s">
+      <c r="C334" s="7" t="s">
         <v>1346</v>
       </c>
       <c r="D334" s="11" t="s">
@@ -23863,24 +24007,24 @@
       <c r="E334" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F334" s="10" t="s">
+      <c r="F334" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G334" s="11" t="s">
         <v>1348</v>
       </c>
-      <c r="H334" s="10" t="n">
+      <c r="H334" s="7" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="335" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="13" t="s">
+    <row r="335" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="6" t="s">
         <v>1396</v>
       </c>
-      <c r="B335" s="10" t="s">
+      <c r="B335" s="7" t="s">
         <v>1397</v>
       </c>
-      <c r="C335" s="10" t="s">
+      <c r="C335" s="7" t="s">
         <v>1398</v>
       </c>
       <c r="D335" s="11" t="s">
@@ -23889,24 +24033,24 @@
       <c r="E335" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="F335" s="10" t="s">
+      <c r="F335" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G335" s="11" t="s">
         <v>1400</v>
       </c>
-      <c r="H335" s="10" t="n">
+      <c r="H335" s="7" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="336" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="10" t="s">
+    <row r="336" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="7" t="s">
         <v>1401</v>
       </c>
-      <c r="B336" s="10" t="s">
+      <c r="B336" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C336" s="10" t="s">
+      <c r="C336" s="7" t="s">
         <v>1402</v>
       </c>
       <c r="D336" s="11" t="s">
@@ -23915,50 +24059,50 @@
       <c r="E336" s="11" t="s">
         <v>720</v>
       </c>
-      <c r="F336" s="10" t="s">
+      <c r="F336" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G336" s="11" t="s">
         <v>1404</v>
       </c>
-      <c r="H336" s="10" t="n">
+      <c r="H336" s="7" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="337" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="10" t="s">
+    <row r="337" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="7" t="s">
         <v>1278</v>
       </c>
-      <c r="B337" s="10" t="s">
+      <c r="B337" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C337" s="10" t="s">
+      <c r="C337" s="7" t="s">
         <v>1279</v>
       </c>
       <c r="D337" s="11" t="s">
         <v>1280</v>
       </c>
-      <c r="E337" s="10" t="s">
+      <c r="E337" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="F337" s="10" t="s">
+      <c r="F337" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G337" s="11" t="s">
         <v>1405</v>
       </c>
-      <c r="H337" s="10" t="n">
+      <c r="H337" s="7" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="338" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="10" t="s">
+    <row r="338" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="7" t="s">
         <v>1406</v>
       </c>
-      <c r="B338" s="10" t="s">
+      <c r="B338" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C338" s="10" t="s">
+      <c r="C338" s="7" t="s">
         <v>1407</v>
       </c>
       <c r="D338" s="11" t="s">
@@ -23967,24 +24111,24 @@
       <c r="E338" s="11" t="s">
         <v>1409</v>
       </c>
-      <c r="F338" s="10" t="s">
+      <c r="F338" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G338" s="11" t="s">
         <v>1410</v>
       </c>
-      <c r="H338" s="10" t="n">
+      <c r="H338" s="7" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="339" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="13" t="s">
+    <row r="339" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="6" t="s">
         <v>1387</v>
       </c>
-      <c r="B339" s="10" t="s">
+      <c r="B339" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="C339" s="10" t="s">
+      <c r="C339" s="7" t="s">
         <v>1388</v>
       </c>
       <c r="D339" s="11" t="s">
@@ -23993,24 +24137,24 @@
       <c r="E339" s="11" t="s">
         <v>720</v>
       </c>
-      <c r="F339" s="10" t="s">
+      <c r="F339" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G339" s="11" t="s">
         <v>1390</v>
       </c>
-      <c r="H339" s="10" t="n">
+      <c r="H339" s="7" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="340" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="10" t="s">
+    <row r="340" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="7" t="s">
         <v>1566</v>
       </c>
-      <c r="B340" s="10" t="s">
+      <c r="B340" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="C340" s="10" t="s">
+      <c r="C340" s="7" t="s">
         <v>1567</v>
       </c>
       <c r="D340" s="11" t="s">
@@ -24019,24 +24163,24 @@
       <c r="E340" s="11" t="s">
         <v>847</v>
       </c>
-      <c r="F340" s="10" t="s">
+      <c r="F340" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G340" s="11" t="s">
         <v>1569</v>
       </c>
-      <c r="H340" s="10" t="n">
+      <c r="H340" s="7" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="341" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="10" t="s">
+    <row r="341" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="7" t="s">
         <v>1570</v>
       </c>
-      <c r="B341" s="10" t="s">
+      <c r="B341" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="C341" s="10" t="s">
+      <c r="C341" s="7" t="s">
         <v>1571</v>
       </c>
       <c r="D341" s="11" t="s">
@@ -24045,21 +24189,21 @@
       <c r="E341" s="11" t="s">
         <v>1573</v>
       </c>
-      <c r="F341" s="10" t="s">
+      <c r="F341" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G341" s="11" t="s">
         <v>1574</v>
       </c>
-      <c r="H341" s="10" t="n">
+      <c r="H341" s="7" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="342" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="10" t="s">
+    <row r="342" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="7" t="s">
         <v>1436</v>
       </c>
-      <c r="C342" s="10" t="s">
+      <c r="C342" s="7" t="s">
         <v>1437</v>
       </c>
       <c r="D342" s="11" t="s">
@@ -24074,15 +24218,15 @@
       <c r="G342" s="11" t="s">
         <v>1439</v>
       </c>
-      <c r="H342" s="10" t="n">
+      <c r="H342" s="7" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="343" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="13" t="s">
+    <row r="343" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="6" t="s">
         <v>1422</v>
       </c>
-      <c r="C343" s="10" t="s">
+      <c r="C343" s="7" t="s">
         <v>1423</v>
       </c>
       <c r="D343" s="11" t="s">
@@ -24091,24 +24235,24 @@
       <c r="E343" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F343" s="10" t="s">
+      <c r="F343" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G343" s="11" t="s">
         <v>1425</v>
       </c>
-      <c r="H343" s="10" t="n">
+      <c r="H343" s="7" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="344" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="10" t="s">
+    <row r="344" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="7" t="s">
         <v>1584</v>
       </c>
-      <c r="B344" s="10" t="s">
+      <c r="B344" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C344" s="10" t="s">
+      <c r="C344" s="7" t="s">
         <v>1585</v>
       </c>
       <c r="D344" s="11" t="s">
@@ -24117,50 +24261,50 @@
       <c r="E344" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F344" s="10" t="s">
+      <c r="F344" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G344" s="11" t="s">
         <v>1587</v>
       </c>
-      <c r="H344" s="10" t="n">
+      <c r="H344" s="7" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="345" s="8" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="8" t="s">
+    <row r="345" s="9" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="9" t="s">
         <v>1172</v>
       </c>
-      <c r="B345" s="9" t="s">
+      <c r="B345" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="C345" s="9" t="s">
+      <c r="C345" s="10" t="s">
         <v>1173</v>
       </c>
-      <c r="D345" s="8" t="s">
+      <c r="D345" s="9" t="s">
         <v>1377</v>
       </c>
-      <c r="E345" s="8" t="s">
+      <c r="E345" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="F345" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G345" s="8" t="s">
+      <c r="F345" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G345" s="9" t="s">
         <v>1378</v>
       </c>
-      <c r="H345" s="8" t="n">
+      <c r="H345" s="9" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="346" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="10" t="s">
+    <row r="346" s="7" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="7" t="s">
         <v>1533</v>
       </c>
-      <c r="B346" s="10" t="s">
+      <c r="B346" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="C346" s="10" t="s">
+      <c r="C346" s="7" t="s">
         <v>1534</v>
       </c>
       <c r="D346" s="11" t="s">
@@ -24169,24 +24313,24 @@
       <c r="E346" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F346" s="10" t="s">
+      <c r="F346" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G346" s="11" t="s">
         <v>1536</v>
       </c>
-      <c r="H346" s="10" t="n">
+      <c r="H346" s="7" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="347" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="13" t="s">
+    <row r="347" s="7" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B347" s="10" t="s">
+      <c r="B347" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C347" s="10" t="s">
+      <c r="C347" s="7" t="s">
         <v>206</v>
       </c>
       <c r="D347" s="11" t="s">
@@ -24195,24 +24339,24 @@
       <c r="E347" s="11" t="s">
         <v>1164</v>
       </c>
-      <c r="F347" s="10" t="s">
+      <c r="F347" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G347" s="11" t="s">
         <v>1485</v>
       </c>
-      <c r="H347" s="10" t="n">
+      <c r="H347" s="7" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="348" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="10" t="s">
+    <row r="348" s="7" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="7" t="s">
         <v>1351</v>
       </c>
-      <c r="B348" s="10" t="s">
+      <c r="B348" s="7" t="s">
         <v>929</v>
       </c>
-      <c r="C348" s="10" t="s">
+      <c r="C348" s="7" t="s">
         <v>1352</v>
       </c>
       <c r="D348" s="11" t="s">
@@ -24221,24 +24365,24 @@
       <c r="E348" s="11" t="s">
         <v>567</v>
       </c>
-      <c r="F348" s="10" t="s">
+      <c r="F348" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G348" s="11" t="s">
         <v>1354</v>
       </c>
-      <c r="H348" s="10" t="n">
+      <c r="H348" s="7" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="349" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="10" t="s">
+    <row r="349" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="7" t="s">
         <v>1391</v>
       </c>
-      <c r="B349" s="10" t="s">
+      <c r="B349" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C349" s="10" t="s">
+      <c r="C349" s="7" t="s">
         <v>1392</v>
       </c>
       <c r="D349" s="11" t="s">
@@ -24247,24 +24391,24 @@
       <c r="E349" s="11" t="s">
         <v>1394</v>
       </c>
-      <c r="F349" s="10" t="s">
+      <c r="F349" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G349" s="11" t="s">
         <v>1395</v>
       </c>
-      <c r="H349" s="10" t="n">
+      <c r="H349" s="7" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="350" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="10" t="s">
+    <row r="350" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="7" t="s">
         <v>1254</v>
       </c>
-      <c r="B350" s="10" t="s">
+      <c r="B350" s="7" t="s">
         <v>929</v>
       </c>
-      <c r="C350" s="10" t="s">
+      <c r="C350" s="7" t="s">
         <v>1255</v>
       </c>
       <c r="D350" s="11" t="s">
@@ -24273,21 +24417,21 @@
       <c r="E350" s="11" t="s">
         <v>1432</v>
       </c>
-      <c r="F350" s="10" t="s">
+      <c r="F350" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G350" s="11" t="s">
         <v>1433</v>
       </c>
-      <c r="H350" s="10" t="n">
+      <c r="H350" s="7" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="351" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="10" t="s">
+    <row r="351" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="7" t="s">
         <v>807</v>
       </c>
-      <c r="C351" s="10" t="s">
+      <c r="C351" s="7" t="s">
         <v>808</v>
       </c>
       <c r="D351" s="11" t="s">
@@ -24296,24 +24440,24 @@
       <c r="E351" s="11" t="s">
         <v>810</v>
       </c>
-      <c r="F351" s="10" t="s">
+      <c r="F351" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G351" s="11" t="s">
         <v>1446</v>
       </c>
-      <c r="H351" s="10" t="n">
+      <c r="H351" s="7" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="352" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="13" t="s">
+    <row r="352" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="6" t="s">
         <v>1471</v>
       </c>
-      <c r="B352" s="10" t="s">
+      <c r="B352" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C352" s="10" t="s">
+      <c r="C352" s="7" t="s">
         <v>1472</v>
       </c>
       <c r="D352" s="11" t="s">
@@ -24322,24 +24466,24 @@
       <c r="E352" s="11" t="s">
         <v>1474</v>
       </c>
-      <c r="F352" s="10" t="s">
+      <c r="F352" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G352" s="11" t="s">
         <v>1475</v>
       </c>
-      <c r="H352" s="10" t="n">
+      <c r="H352" s="7" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="353" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="10" t="s">
+    <row r="353" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="7" t="s">
         <v>1476</v>
       </c>
-      <c r="B353" s="10" t="s">
+      <c r="B353" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="C353" s="10" t="s">
+      <c r="C353" s="7" t="s">
         <v>1477</v>
       </c>
       <c r="D353" s="11" t="s">
@@ -24348,24 +24492,24 @@
       <c r="E353" s="11" t="s">
         <v>1479</v>
       </c>
-      <c r="F353" s="10" t="s">
+      <c r="F353" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G353" s="11" t="s">
         <v>1480</v>
       </c>
-      <c r="H353" s="10" t="n">
+      <c r="H353" s="7" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="354" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="13" t="s">
+    <row r="354" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="6" t="s">
         <v>1503</v>
       </c>
-      <c r="B354" s="10" t="s">
+      <c r="B354" s="7" t="s">
         <v>1504</v>
       </c>
-      <c r="C354" s="10" t="s">
+      <c r="C354" s="7" t="s">
         <v>1505</v>
       </c>
       <c r="D354" s="11" t="s">
@@ -24374,13 +24518,13 @@
       <c r="E354" s="11" t="s">
         <v>624</v>
       </c>
-      <c r="F354" s="10" t="s">
+      <c r="F354" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G354" s="11" t="s">
         <v>1507</v>
       </c>
-      <c r="H354" s="10" t="n">
+      <c r="H354" s="7" t="n">
         <v>43</v>
       </c>
     </row>
@@ -24410,14 +24554,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="356" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="13" t="s">
+    <row r="356" s="7" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="6" t="s">
         <v>1486</v>
       </c>
-      <c r="B356" s="10" t="s">
+      <c r="B356" s="7" t="s">
         <v>1116</v>
       </c>
-      <c r="C356" s="10" t="s">
+      <c r="C356" s="7" t="s">
         <v>1487</v>
       </c>
       <c r="D356" s="11" t="s">
@@ -24426,21 +24570,22 @@
       <c r="E356" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="F356" s="10" t="s">
+      <c r="F356" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G356" s="11" t="s">
         <v>1489</v>
       </c>
-      <c r="H356" s="10" t="n">
+      <c r="H356" s="7" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="357" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="10" t="s">
+    <row r="357" s="7" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="7" t="s">
         <v>1490</v>
       </c>
-      <c r="C357" s="10" t="s">
+      <c r="B357" s="0"/>
+      <c r="C357" s="7" t="s">
         <v>1491</v>
       </c>
       <c r="D357" s="11" t="s">
@@ -24449,24 +24594,24 @@
       <c r="E357" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="F357" s="10" t="s">
+      <c r="F357" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G357" s="11" t="s">
         <v>1493</v>
       </c>
-      <c r="H357" s="10" t="n">
+      <c r="H357" s="7" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="358" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="10" t="s">
+    <row r="358" s="7" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="B358" s="10" t="s">
+      <c r="B358" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C358" s="10" t="s">
+      <c r="C358" s="7" t="s">
         <v>446</v>
       </c>
       <c r="D358" s="11" t="s">
@@ -24475,24 +24620,24 @@
       <c r="E358" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="F358" s="10" t="s">
+      <c r="F358" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G358" s="11" t="s">
         <v>1502</v>
       </c>
-      <c r="H358" s="10" t="n">
+      <c r="H358" s="7" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="359" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="13" t="s">
+    <row r="359" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="B359" s="10" t="s">
+      <c r="B359" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="C359" s="10" t="s">
+      <c r="C359" s="7" t="s">
         <v>574</v>
       </c>
       <c r="D359" s="11" t="s">
@@ -24501,21 +24646,21 @@
       <c r="E359" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="F359" s="10" t="s">
+      <c r="F359" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G359" s="11" t="s">
         <v>1559</v>
       </c>
-      <c r="H359" s="10" t="n">
+      <c r="H359" s="7" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="360" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="13" t="s">
+    <row r="360" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="6" t="s">
         <v>1447</v>
       </c>
-      <c r="C360" s="10" t="s">
+      <c r="C360" s="7" t="s">
         <v>1448</v>
       </c>
       <c r="D360" s="11" t="s">
@@ -24524,21 +24669,21 @@
       <c r="E360" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F360" s="10" t="s">
+      <c r="F360" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G360" s="11" t="s">
         <v>1450</v>
       </c>
-      <c r="H360" s="10" t="n">
+      <c r="H360" s="7" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="361" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="13" t="s">
+    <row r="361" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="C361" s="10" t="s">
+      <c r="C361" s="7" t="s">
         <v>1529</v>
       </c>
       <c r="D361" s="11" t="s">
@@ -24547,24 +24692,24 @@
       <c r="E361" s="11" t="s">
         <v>1531</v>
       </c>
-      <c r="F361" s="10" t="s">
+      <c r="F361" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G361" s="11" t="s">
         <v>1532</v>
       </c>
-      <c r="H361" s="10" t="n">
+      <c r="H361" s="7" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="362" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="10" t="s">
+    <row r="362" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="7" t="s">
         <v>1580</v>
       </c>
-      <c r="B362" s="10" t="s">
+      <c r="B362" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C362" s="10" t="s">
+      <c r="C362" s="7" t="s">
         <v>1581</v>
       </c>
       <c r="D362" s="11" t="s">
@@ -24579,18 +24724,18 @@
       <c r="G362" s="11" t="s">
         <v>1583</v>
       </c>
-      <c r="H362" s="10" t="n">
+      <c r="H362" s="7" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="363" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="13" t="s">
+    <row r="363" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B363" s="10" t="s">
+      <c r="B363" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C363" s="10" t="s">
+      <c r="C363" s="7" t="s">
         <v>189</v>
       </c>
       <c r="D363" s="11" t="s">
@@ -24605,15 +24750,15 @@
       <c r="G363" s="11" t="s">
         <v>1565</v>
       </c>
-      <c r="H363" s="10" t="n">
+      <c r="H363" s="7" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="364" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="10" t="s">
+    <row r="364" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="7" t="s">
         <v>1513</v>
       </c>
-      <c r="B364" s="10" t="s">
+      <c r="B364" s="7" t="s">
         <v>1514</v>
       </c>
       <c r="C364" s="11" t="s">
@@ -24631,18 +24776,18 @@
       <c r="G364" s="11" t="s">
         <v>1518</v>
       </c>
-      <c r="H364" s="10" t="n">
+      <c r="H364" s="7" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="365" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="10" t="s">
+    <row r="365" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="7" t="s">
         <v>1451</v>
       </c>
-      <c r="B365" s="10" t="s">
+      <c r="B365" s="7" t="s">
         <v>1452</v>
       </c>
-      <c r="C365" s="10" t="s">
+      <c r="C365" s="7" t="s">
         <v>1453</v>
       </c>
       <c r="D365" s="11" t="s">
@@ -24657,18 +24802,18 @@
       <c r="G365" s="11" t="s">
         <v>1456</v>
       </c>
-      <c r="H365" s="10" t="n">
+      <c r="H365" s="7" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="366" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="10" t="s">
+    <row r="366" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="7" t="s">
         <v>1457</v>
       </c>
-      <c r="B366" s="10" t="s">
+      <c r="B366" s="7" t="s">
         <v>1458</v>
       </c>
-      <c r="C366" s="10" t="s">
+      <c r="C366" s="7" t="s">
         <v>1459</v>
       </c>
       <c r="D366" s="11" t="s">
@@ -24683,18 +24828,18 @@
       <c r="G366" s="11" t="s">
         <v>1461</v>
       </c>
-      <c r="H366" s="10" t="n">
+      <c r="H366" s="7" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="367" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="10" t="s">
+    <row r="367" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="7" t="s">
         <v>1426</v>
       </c>
-      <c r="B367" s="10" t="s">
+      <c r="B367" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C367" s="10" t="s">
+      <c r="C367" s="7" t="s">
         <v>1427</v>
       </c>
       <c r="D367" s="11" t="s">
@@ -24709,18 +24854,18 @@
       <c r="G367" s="11" t="s">
         <v>1430</v>
       </c>
-      <c r="H367" s="10" t="n">
+      <c r="H367" s="7" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="368" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="13" t="s">
+    <row r="368" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="6" t="s">
         <v>1381</v>
       </c>
       <c r="B368" s="11" t="s">
         <v>1382</v>
       </c>
-      <c r="C368" s="10" t="s">
+      <c r="C368" s="7" t="s">
         <v>1383</v>
       </c>
       <c r="D368" s="11" t="s">
@@ -24735,18 +24880,18 @@
       <c r="G368" s="11" t="s">
         <v>1386</v>
       </c>
-      <c r="H368" s="10" t="n">
+      <c r="H368" s="7" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="369" s="10" customFormat="true" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="13" t="s">
+    <row r="369" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="6" t="s">
         <v>1537</v>
       </c>
-      <c r="B369" s="10" t="s">
+      <c r="B369" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="C369" s="10" t="s">
+      <c r="C369" s="7" t="s">
         <v>1538</v>
       </c>
       <c r="D369" s="11" t="s">
@@ -24761,12 +24906,12 @@
       <c r="G369" s="11" t="s">
         <v>1540</v>
       </c>
-      <c r="H369" s="10" t="n">
+      <c r="H369" s="7" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="370" s="10" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="13" t="s">
+    <row r="370" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="6" t="s">
         <v>1660</v>
       </c>
       <c r="B370" s="1" t="s">
